--- a/接口测试/商城接口测试用例.xlsx
+++ b/接口测试/商城接口测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\佳佳\Desktop\UPUP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEBB9CA-C580-400A-9310-B040D84DF5FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF808DE-ABF4-477E-ABEA-0481CD602223}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3355,202 +3355,6 @@
   </si>
   <si>
     <r>
-      <t>登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型不正确</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>addressDetail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型不正确</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，缺少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>失败</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，缺少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>addressDetail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>code : 200
 message : "success"</t>
     </r>
@@ -4429,6 +4233,202 @@
       </rPr>
       <t>成功</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>获取运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型不正确</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressDetail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型不正确</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，缺少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>addressDetail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>获取运费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，缺少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4975,7 +4975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -5179,7 +5179,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -5191,7 +5191,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>32</v>
@@ -5245,10 +5245,10 @@
     </row>
     <row r="12" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>8</v>
@@ -5260,7 +5260,7 @@
         <v>197</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>32</v>
@@ -5439,8 +5439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5505,7 +5505,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>57</v>
@@ -6008,10 +6008,10 @@
     </row>
     <row r="25" spans="1:7" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>57</v>
@@ -6023,10 +6023,10 @@
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -6125,13 +6125,13 @@
     </row>
     <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>243</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>188</v>
@@ -6143,7 +6143,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -6156,8 +6156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2653D9-8DF3-4F30-B373-71E63BD7DB48}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6211,10 +6211,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -6222,7 +6222,7 @@
         <v>209</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
@@ -6234,18 +6234,18 @@
         <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
@@ -6257,10 +6257,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -6268,7 +6268,7 @@
         <v>211</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -6280,10 +6280,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="33" x14ac:dyDescent="0.15">
@@ -6291,7 +6291,7 @@
         <v>212</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>8</v>
@@ -6303,15 +6303,15 @@
         <v>10</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>213</v>
@@ -6326,10 +6326,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -6386,7 +6386,7 @@
         <v>227</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>215</v>
@@ -6409,7 +6409,7 @@
         <v>231</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>215</v>
@@ -6432,7 +6432,7 @@
         <v>234</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>215</v>
@@ -6455,10 +6455,10 @@
         <v>236</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>228</v>
@@ -6478,7 +6478,7 @@
         <v>237</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>215</v>
@@ -6490,7 +6490,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>233</v>
@@ -6506,8 +6506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11237BF0-2F65-4753-9191-D44C1AD72BBB}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6549,7 +6549,7 @@
         <v>214</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>215</v>
@@ -6561,10 +6561,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
@@ -6584,7 +6584,7 @@
         <v>197</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>219</v>
@@ -6607,7 +6607,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>222</v>
@@ -6618,7 +6618,7 @@
         <v>223</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>215</v>
@@ -6630,10 +6630,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.15">
@@ -6653,7 +6653,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>226</v>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="7" spans="1:7" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>215</v>
@@ -6676,18 +6676,18 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>215</v>
@@ -6699,18 +6699,18 @@
         <v>10</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>215</v>
@@ -6722,18 +6722,18 @@
         <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="264" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>215</v>
@@ -6745,18 +6745,18 @@
         <v>10</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="264" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>215</v>
@@ -6768,18 +6768,18 @@
         <v>10</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="264" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>215</v>
@@ -6791,18 +6791,18 @@
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="264" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>215</v>
@@ -6814,18 +6814,18 @@
         <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="264" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>215</v>
@@ -6837,10 +6837,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6854,7 +6854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
